--- a/outputs_prep_v2/question_registry_v2.xlsx
+++ b/outputs_prep_v2/question_registry_v2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
   <si>
     <t xml:space="preserve">column</t>
   </si>
@@ -290,45 +290,24 @@
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Қарз олиш осон ва тез</t>
   </si>
   <si>
-    <t xml:space="preserve">Қарз олиш осон ва тез</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Устамасиз (фоизсиз) олиш мумкин</t>
   </si>
   <si>
-    <t xml:space="preserve">Устамасиз (фоизсиз) олиш мумкин</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Расмий даромадга эга бўлмай туриб ҳам қарз олиш мумкин</t>
   </si>
   <si>
-    <t xml:space="preserve">Расмий даромадга эга бўлмай туриб ҳам қарз олиш мумкин</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Диний сабаблар туфайли (рибо/фоиздан сақланиш)</t>
   </si>
   <si>
-    <t xml:space="preserve">Диний сабаблар туфайли (рибо/фоиздан сақланиш)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Кредит тарихи ёмонлиги сабабли расмий ташкилотларга мурожаат қила олмаслигим учун</t>
   </si>
   <si>
-    <t xml:space="preserve">Кредит тарихи ёмонлиги сабабли расмий ташкилотларга мурожаат қила олмаслигим учун</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Банкларда кредит ставкаси ва харажатлари юқори бўлганлиги учун</t>
   </si>
   <si>
-    <t xml:space="preserve">Банкларда кредит ставкаси ва харажатлари юқори бўлганлиги учун</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Бошқа сабаблар</t>
   </si>
   <si>
-    <t xml:space="preserve">Бошқа сабаблар</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.а.1. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (Бошқа)</t>
   </si>
   <si>
@@ -338,45 +317,24 @@
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Банкда шартлар аниқ ва қонуний</t>
   </si>
   <si>
-    <t xml:space="preserve">Банкда шартлар аниқ ва қонуний</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Банк кредит тарихи шаклланади (кейинчалик фойдаси бор)</t>
   </si>
   <si>
-    <t xml:space="preserve">Банк кредит тарихи шаклланади (кейинчалик фойдаси бор)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Фоизлари (устамалари) бошқаларга нисбатан камроқ</t>
   </si>
   <si>
-    <t xml:space="preserve">Фоизлари (устамалари) бошқаларга нисбатан камроқ</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Банкда танишим ишлайди</t>
   </si>
   <si>
-    <t xml:space="preserve">Банкда танишим ишлайди</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Йирик суммани норасмий олиш қийин</t>
   </si>
   <si>
-    <t xml:space="preserve">Йирик суммани норасмий олиш қийин</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Қулай ва осон (масалан, онлайн қарз олиш мумкин)</t>
   </si>
   <si>
-    <t xml:space="preserve">Қулай ва осон (масалан, онлайн қарз олиш мумкин)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Банклардан кредитни узоқ муддатга олиш мумкин</t>
   </si>
   <si>
-    <t xml:space="preserve">Банклардан кредитни узоқ муддатга олиш мумкин</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Бошқа сабаблар</t>
   </si>
   <si>
@@ -389,9 +347,6 @@
     <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)/Қарз олиш осон ва тез (онлайн олиш мумкин)</t>
   </si>
   <si>
-    <t xml:space="preserve">Қарз олиш осон ва тез (онлайн олиш мумкин)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)/Устамасиз (фоизсиз) олиш мумкин</t>
   </si>
   <si>
@@ -404,9 +359,6 @@
     <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)/Кредит тарихи ёмонлиги учун</t>
   </si>
   <si>
-    <t xml:space="preserve">Кредит тарихи ёмонлиги учун</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)/Бошқа сабаблар</t>
   </si>
   <si>
@@ -464,7 +416,10 @@
     <t xml:space="preserve">2.2.г. Сиз нега қарз, кредит, насия олмасликни афзал кўрасиз?/Оилам/яқинларим қарши</t>
   </si>
   <si>
-    <t xml:space="preserve">Оилам/яқинларим қарши</t>
+    <t xml:space="preserve">2.2.г. Сиз нега қарз, кредит, насия олмасликни афзал кўрасиз?/Оилам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яқинларим қарши</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.г. Сиз нега қарз, кредит, насия олмасликни афзал кўрасиз?/Бошқа</t>
@@ -578,24 +533,12 @@
     <t xml:space="preserve">2.4.1. Бугунги кунда номингизда нечта кредит/қарз/насия бўйича тўловларни амалга оширяпсиз?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.1. Бугунги кунда номингизда нечта кредит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">қарз/насия бўйича тўловларни амалга оширяпсиз?</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.4.2. Таҳминан оилавий даромадингизнинг қанча қисми (неча фоизи) қарзни қайтариш учун сарфланади?</t>
   </si>
   <si>
     <t xml:space="preserve">2.4.3. Агар даромадсиз қолсангиз, неча ой давомида кредит/қарз/насия тўловларини амалга ошириш имкониятига эгасиз?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3. Агар даромадсиз қолсангиз, неча ой давомида кредит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">қарз/насия тўловларини амалга ошириш имкониятига эгасиз?</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.4.4. Даромадингиз ойма-ой қай даражада ўзгариб туради?</t>
   </si>
   <si>
@@ -659,7 +602,10 @@
     <t xml:space="preserve">2.7. Ушбу қарзни (кредит, насия) олишда асосий мақсад нима бўлган?/Маиший техника / уй жиҳозлари сотиб олиш</t>
   </si>
   <si>
-    <t xml:space="preserve">Маиший техника / уй жиҳозлари сотиб олиш</t>
+    <t xml:space="preserve">2.7. Ушбу қарзни (кредит, насия) олишда асосий мақсад нима бўлган?/Маиший техника </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> уй жиҳозлари сотиб олиш</t>
   </si>
   <si>
     <t xml:space="preserve">2.7. Ушбу қарзни (кредит, насия) олишда асосий мақсад нима бўлган?/Автомобил (тарнспорт воситалари) харид қилиш</t>
@@ -719,7 +665,10 @@
     <t xml:space="preserve">2.7. Ушбу қарзни (кредит, насия) олишда асосий мақсад нима бўлган?/Қариндошларим / яқинларимга ёрдам бериш</t>
   </si>
   <si>
-    <t xml:space="preserve">Қариндошларим / яқинларимга ёрдам бериш</t>
+    <t xml:space="preserve">2.7. Ушбу қарзни (кредит, насия) олишда асосий мақсад нима бўлган?/Қариндошларим </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> яқинларимга ёрдам бериш</t>
   </si>
   <si>
     <t xml:space="preserve">2.7. Ушбу қарзни (кредит, насия) олишда асосий мақсад нима бўлган?/Бошқа</t>
@@ -815,7 +764,10 @@
     <t xml:space="preserve">2.7.в. Сизнингча, ушбу кредитларни ўз вақтида қайтарилишини даражасини ошириш учун қандай турдаги ёрдам ва қўллаб-қувватлаш чоралари зарур деб ҳисоблайсиз?/Бизнес кўникмалари бўйича ўқув/тренинглар ташкил этиш ва маслаҳатлар бериш</t>
   </si>
   <si>
-    <t xml:space="preserve">Бизнес кўникмалари бўйича ўқув/тренинглар ташкил этиш ва маслаҳатлар бериш</t>
+    <t xml:space="preserve">2.7.в. Сизнингча, ушбу кредитларни ўз вақтида қайтарилишини даражасини ошириш учун қандай турдаги ёрдам ва қўллаб-қувватлаш чоралари зарур деб ҳисоблайсиз?/Бизнес кўникмалари бўйича ўқув</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тренинглар ташкил этиш ва маслаҳатлар бериш</t>
   </si>
   <si>
     <t xml:space="preserve">2.7.в. Сизнингча, ушбу кредитларни ўз вақтида қайтарилишини даражасини ошириш учун қандай турдаги ёрдам ва қўллаб-қувватлаш чоралари зарур деб ҳисоблайсиз?/Тўлов муддатларини мослашувчан қилиб бериш</t>
@@ -1052,12 +1004,6 @@
     <t xml:space="preserve">3.6. Қарз (кредит, насия) олишдан аввал кредит шартлари, шу жумладан, фоиз тўловлари юзасидан банк ходимлари/қарз берувчи шахслар тушунтириш берганми?</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6. Қарз (кредит, насия) олишдан аввал кредит шартлари, шу жумладан, фоиз тўловлари юзасидан банк ходимлари</t>
-  </si>
-  <si>
-    <t xml:space="preserve">қарз берувчи шахслар тушунтириш берганми?</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.7. Нима сабабдан қарз (кредит, насия) ўз вақтида амалга ошириш имконияти мавжуд бўлмаган?</t>
   </si>
   <si>
@@ -1082,7 +1028,10 @@
     <t xml:space="preserve">3.7. Нима сабабдан қарз (кредит, насия) ўз вақтида амалга ошириш имконияти мавжуд бўлмаган?/Даромадларим мавсумий/доимий эмас</t>
   </si>
   <si>
-    <t xml:space="preserve">Даромадларим мавсумий/доимий эмас</t>
+    <t xml:space="preserve">3.7. Нима сабабдан қарз (кредит, насия) ўз вақтида амалга ошириш имконияти мавжуд бўлмаган?/Даромадларим мавсумий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доимий эмас</t>
   </si>
   <si>
     <t xml:space="preserve">3.7. Нима сабабдан қарз (кредит, насия) ўз вақтида амалга ошириш имконияти мавжуд бўлмаган?/Кредит олишда имкониятларимни нотўғри баҳоладим</t>
@@ -1214,64 +1163,64 @@
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11.1. Кредит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/SMS орқали эслатмалар</t>
   </si>
   <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/SMS орқали эслатмалар</t>
+    <t xml:space="preserve">SMS орқали эслатмалар</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Телефон орқали қўнғироқлар</t>
   </si>
   <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Телефон орқали қўнғироқлар</t>
+    <t xml:space="preserve">Телефон орқали қўнғироқлар</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Банк ходимининг уйга/ишга келиши)</t>
   </si>
   <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Банк ходимининг уйга/ишга келиши)</t>
+    <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Банк ходимининг уйга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ишга келиши)</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/МИБ ходимининг уйга/ишга келиши, боғланиши</t>
   </si>
   <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/МИБ ходимининг уйга/ишга келиши, боғланиши</t>
+    <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/МИБ ходимининг уйга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ишга келиши, боғланиши</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Кафил билан боғланиш</t>
   </si>
   <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Кафил билан боғланиш</t>
+    <t xml:space="preserve">Кафил билан боғланиш</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Расмий огоҳлантириш хати юбориш</t>
   </si>
   <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Расмий огоҳлантириш хати юбориш</t>
+    <t xml:space="preserve">Расмий огоҳлантириш хати юбориш</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Суд жараёни</t>
   </si>
   <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Суд жараёни</t>
+    <t xml:space="preserve">Суд жараёни</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Гаров бўйича чоралар (гаровга тақиқ қўйилиши)</t>
   </si>
   <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Гаров бўйича чоралар (гаровга тақиқ қўйилиши)</t>
+    <t xml:space="preserve">Гаров бўйича чоралар (гаровга тақиқ қўйилиши)</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Умуман қўлланилмаган</t>
   </si>
   <si>
-    <t xml:space="preserve">қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Умуман қўлланилмаган</t>
+    <t xml:space="preserve">Умуман қўлланилмаган</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?</t>
@@ -1280,15 +1229,9 @@
     <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?/SMS орқали эслатмалар</t>
   </si>
   <si>
-    <t xml:space="preserve">SMS орқали эслатмалар</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?/Телефон орқали қўнғироқлар</t>
   </si>
   <si>
-    <t xml:space="preserve">Телефон орқали қўнғироқлар</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?/Банк иловаси орқали эслатмалар</t>
   </si>
   <si>
@@ -1298,7 +1241,10 @@
     <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?/Мессенжерлар (Telegram/WhatsApp) орқали эслатмалар</t>
   </si>
   <si>
-    <t xml:space="preserve">Мессенжерлар (Telegram/WhatsApp) орқали эслатмалар</t>
+    <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?/Мессенжерлар (Telegram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhatsApp) орқали эслатмалар</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?/Кафил шахснинг телефон қилиши</t>
@@ -2304,102 +2250,74 @@
         <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" t="s">
-        <v>92</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" t="s">
-        <v>94</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" t="s">
-        <v>96</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" t="s">
-        <v>98</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" t="s">
-        <v>100</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" t="s">
-        <v>104</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2409,7 +2327,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2419,119 +2337,87 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" t="s">
-        <v>108</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" t="s">
-        <v>110</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" t="s">
-        <v>112</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" t="s">
-        <v>114</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" t="s">
-        <v>116</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" t="s">
-        <v>118</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" t="s">
-        <v>120</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" t="s">
-        <v>104</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2541,7 +2427,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2551,91 +2437,67 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" t="s">
-        <v>125</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" t="s">
-        <v>94</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" t="s">
-        <v>123</v>
-      </c>
-      <c r="D76" t="s">
-        <v>96</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" t="s">
-        <v>123</v>
-      </c>
-      <c r="D77" t="s">
-        <v>98</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" t="s">
-        <v>123</v>
-      </c>
-      <c r="D78" t="s">
-        <v>130</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" t="s">
-        <v>104</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2645,147 +2507,147 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
         <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
         <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s">
         <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
         <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B85" t="s">
         <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
         <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
         <v>36</v>
       </c>
       <c r="C88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" t="s">
         <v>132</v>
-      </c>
-      <c r="D88" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B89" t="s">
         <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2795,119 +2657,119 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B93" t="s">
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s">
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D96" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
         <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B98" t="s">
         <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B99" t="s">
         <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2917,77 +2779,73 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B101" t="s">
         <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B102" t="s">
         <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B103" t="s">
         <v>36</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
         <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
-      </c>
-      <c r="C105" t="s">
-        <v>188</v>
-      </c>
-      <c r="D105" t="s">
-        <v>189</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -2997,21 +2855,17 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
-      </c>
-      <c r="C107" t="s">
-        <v>192</v>
-      </c>
-      <c r="D107" t="s">
-        <v>193</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -3021,7 +2875,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -3031,105 +2885,105 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B110" t="s">
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D110" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D111" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B112" t="s">
         <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D112" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
         <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D113" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B114" t="s">
         <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D114" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
         <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D115" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D116" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3139,7 +2993,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3149,7 +3003,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3159,203 +3013,203 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B120" t="s">
         <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D120" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B121" t="s">
         <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D121" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B122" t="s">
         <v>36</v>
       </c>
       <c r="C122" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D122" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B123" t="s">
         <v>36</v>
       </c>
       <c r="C123" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D123" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B124" t="s">
         <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D124" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B125" t="s">
         <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D125" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B126" t="s">
         <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D126" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B127" t="s">
         <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D127" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B128" t="s">
         <v>36</v>
       </c>
       <c r="C128" t="s">
+        <v>190</v>
+      </c>
+      <c r="D128" t="s">
         <v>209</v>
-      </c>
-      <c r="D128" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B129" t="s">
         <v>36</v>
       </c>
       <c r="C129" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D129" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B130" t="s">
         <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D130" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B131" t="s">
         <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D131" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B132" t="s">
         <v>36</v>
       </c>
       <c r="C132" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D132" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B133" t="s">
         <v>36</v>
       </c>
       <c r="C133" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D133" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3365,7 +3219,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -3375,91 +3229,91 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B136" t="s">
         <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D136" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B137" t="s">
         <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D137" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B138" t="s">
         <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D138" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B139" t="s">
         <v>36</v>
       </c>
       <c r="C139" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D139" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B140" t="s">
         <v>36</v>
       </c>
       <c r="C140" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D140" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B141" t="s">
         <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D141" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3469,7 +3323,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3479,91 +3333,91 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B144" t="s">
         <v>36</v>
       </c>
       <c r="C144" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D144" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B145" t="s">
         <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D145" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B146" t="s">
         <v>36</v>
       </c>
       <c r="C146" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B147" t="s">
         <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D147" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B148" t="s">
         <v>36</v>
       </c>
       <c r="C148" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D148" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B149" t="s">
         <v>36</v>
       </c>
       <c r="C149" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="D149" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3573,7 +3427,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3583,105 +3437,105 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B152" t="s">
         <v>36</v>
       </c>
       <c r="C152" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D152" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B153" t="s">
         <v>36</v>
       </c>
       <c r="C153" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D153" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
         <v>36</v>
       </c>
       <c r="C154" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D154" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
         <v>36</v>
       </c>
       <c r="C155" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D155" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B156" t="s">
         <v>36</v>
       </c>
       <c r="C156" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D156" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B157" t="s">
         <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B158" t="s">
         <v>36</v>
       </c>
       <c r="C158" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D158" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
@@ -3691,7 +3545,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -3701,7 +3555,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
@@ -3711,7 +3565,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -3721,7 +3575,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -3731,119 +3585,119 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B164" t="s">
         <v>36</v>
       </c>
       <c r="C164" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D164" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B165" t="s">
         <v>36</v>
       </c>
       <c r="C165" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D165" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>36</v>
       </c>
       <c r="C166" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D166" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B167" t="s">
         <v>36</v>
       </c>
       <c r="C167" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D167" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B168" t="s">
         <v>36</v>
       </c>
       <c r="C168" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D168" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B169" t="s">
         <v>36</v>
       </c>
       <c r="C169" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D169" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B170" t="s">
         <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D170" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B171" t="s">
         <v>36</v>
       </c>
       <c r="C171" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D171" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -3853,7 +3707,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -3863,7 +3717,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -3873,147 +3727,147 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B175" t="s">
         <v>36</v>
       </c>
       <c r="C175" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D175" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B176" t="s">
         <v>36</v>
       </c>
       <c r="C176" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D176" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B177" t="s">
         <v>36</v>
       </c>
       <c r="C177" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D177" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B178" t="s">
         <v>36</v>
       </c>
       <c r="C178" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D178" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B179" t="s">
         <v>36</v>
       </c>
       <c r="C179" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D179" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B180" t="s">
         <v>36</v>
       </c>
       <c r="C180" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D180" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B181" t="s">
         <v>36</v>
       </c>
       <c r="C181" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D181" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B182" t="s">
         <v>36</v>
       </c>
       <c r="C182" t="s">
+        <v>285</v>
+      </c>
+      <c r="D182" t="s">
         <v>301</v>
-      </c>
-      <c r="D182" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B183" t="s">
         <v>36</v>
       </c>
       <c r="C183" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D183" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B184" t="s">
         <v>36</v>
       </c>
       <c r="C184" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D184" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -4023,105 +3877,105 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B186" t="s">
         <v>36</v>
       </c>
       <c r="C186" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D186" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B187" t="s">
         <v>36</v>
       </c>
       <c r="C187" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D187" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B188" t="s">
         <v>36</v>
       </c>
       <c r="C188" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D188" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B189" t="s">
         <v>36</v>
       </c>
       <c r="C189" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D189" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B190" t="s">
         <v>36</v>
       </c>
       <c r="C190" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D190" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B191" t="s">
         <v>36</v>
       </c>
       <c r="C191" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D191" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B192" t="s">
         <v>36</v>
       </c>
       <c r="C192" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D192" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -4131,7 +3985,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -4141,21 +3995,17 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
-      </c>
-      <c r="C195" t="s">
-        <v>346</v>
-      </c>
-      <c r="D195" t="s">
-        <v>347</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C195"/>
+      <c r="D195"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -4165,245 +4015,245 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B197" t="s">
         <v>36</v>
       </c>
       <c r="C197" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D197" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="B198" t="s">
         <v>36</v>
       </c>
       <c r="C198" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D198" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B199" t="s">
         <v>36</v>
       </c>
       <c r="C199" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D199" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B200" t="s">
         <v>36</v>
       </c>
       <c r="C200" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D200" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B201" t="s">
         <v>36</v>
       </c>
       <c r="C201" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D201" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B202" t="s">
         <v>36</v>
       </c>
       <c r="C202" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D202" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="B203" t="s">
         <v>36</v>
       </c>
       <c r="C203" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D203" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B204" t="s">
         <v>36</v>
       </c>
       <c r="C204" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D204" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B205" t="s">
         <v>36</v>
       </c>
       <c r="C205" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D205" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="B206" t="s">
         <v>36</v>
       </c>
       <c r="C206" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D206" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B207" t="s">
         <v>36</v>
       </c>
       <c r="C207" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D207" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="B208" t="s">
         <v>36</v>
       </c>
       <c r="C208" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D208" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B209" t="s">
         <v>36</v>
       </c>
       <c r="C209" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D209" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B210" t="s">
         <v>36</v>
       </c>
       <c r="C210" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D210" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B211" t="s">
         <v>36</v>
       </c>
       <c r="C211" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D211" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B212" t="s">
         <v>36</v>
       </c>
       <c r="C212" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D212" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B213" t="s">
         <v>36</v>
       </c>
       <c r="C213" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D213" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -4413,7 +4263,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -4423,7 +4273,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -4433,91 +4283,91 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B217" t="s">
         <v>36</v>
       </c>
       <c r="C217" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D217" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="B218" t="s">
         <v>36</v>
       </c>
       <c r="C218" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D218" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B219" t="s">
         <v>36</v>
       </c>
       <c r="C219" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D219" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="B220" t="s">
         <v>36</v>
       </c>
       <c r="C220" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D220" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B221" t="s">
         <v>36</v>
       </c>
       <c r="C221" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D221" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="B222" t="s">
         <v>36</v>
       </c>
       <c r="C222" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D222" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -4527,7 +4377,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
@@ -4537,147 +4387,143 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B225" t="s">
-        <v>36</v>
-      </c>
-      <c r="C225" t="s">
-        <v>400</v>
-      </c>
-      <c r="D225" t="s">
-        <v>401</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C225"/>
+      <c r="D225"/>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B226" t="s">
         <v>36</v>
       </c>
       <c r="C226" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D226" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B227" t="s">
         <v>36</v>
       </c>
       <c r="C227" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D227" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="B228" t="s">
         <v>36</v>
       </c>
       <c r="C228" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D228" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B229" t="s">
         <v>36</v>
       </c>
       <c r="C229" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D229" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B230" t="s">
         <v>36</v>
       </c>
       <c r="C230" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D230" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B231" t="s">
         <v>36</v>
       </c>
       <c r="C231" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D231" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="B232" t="s">
         <v>36</v>
       </c>
       <c r="C232" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D232" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="B233" t="s">
         <v>36</v>
       </c>
       <c r="C233" t="s">
+        <v>382</v>
+      </c>
+      <c r="D233" t="s">
         <v>400</v>
-      </c>
-      <c r="D233" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B234" t="s">
         <v>36</v>
       </c>
       <c r="C234" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D234" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -4687,119 +4533,119 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B236" t="s">
         <v>36</v>
       </c>
       <c r="C236" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D236" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="B237" t="s">
         <v>36</v>
       </c>
       <c r="C237" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D237" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B238" t="s">
         <v>36</v>
       </c>
       <c r="C238" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D238" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="B239" t="s">
         <v>36</v>
       </c>
       <c r="C239" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D239" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B240" t="s">
         <v>36</v>
       </c>
       <c r="C240" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D240" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="B241" t="s">
         <v>36</v>
       </c>
       <c r="C241" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D241" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B242" t="s">
         <v>36</v>
       </c>
       <c r="C242" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D242" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="B243" t="s">
         <v>36</v>
       </c>
       <c r="C243" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D243" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
@@ -4809,7 +4655,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
@@ -4819,7 +4665,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B246" t="s">
         <v>7</v>
@@ -4829,7 +4675,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
@@ -4839,7 +4685,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="B248" t="s">
         <v>13</v>
@@ -4849,7 +4695,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B249" t="s">
         <v>13</v>
@@ -4859,7 +4705,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>

--- a/outputs_prep_v2/question_registry_v2.xlsx
+++ b/outputs_prep_v2/question_registry_v2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t xml:space="preserve">column</t>
   </si>
@@ -290,24 +290,42 @@
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Қарз олиш осон ва тез</t>
   </si>
   <si>
+    <t xml:space="preserve">Қарз олиш осон ва тез</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Устамасиз (фоизсиз) олиш мумкин</t>
   </si>
   <si>
+    <t xml:space="preserve">Устамасиз (фоизсиз) олиш мумкин</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Расмий даромадга эга бўлмай туриб ҳам қарз олиш мумкин</t>
   </si>
   <si>
+    <t xml:space="preserve">Расмий даромадга эга бўлмай туриб ҳам қарз олиш мумкин</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Диний сабаблар туфайли (рибо/фоиздан сақланиш)</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Кредит тарихи ёмонлиги сабабли расмий ташкилотларга мурожаат қила олмаслигим учун</t>
   </si>
   <si>
+    <t xml:space="preserve">Кредит тарихи ёмонлиги сабабли расмий ташкилотларга мурожаат қила олмаслигим учун</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Банкларда кредит ставкаси ва харажатлари юқори бўлганлиги учун</t>
   </si>
   <si>
+    <t xml:space="preserve">Банкларда кредит ставкаси ва харажатлари юқори бўлганлиги учун</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)/Бошқа сабаблар</t>
   </si>
   <si>
+    <t xml:space="preserve">Бошқа сабаблар</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.а.1. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (Бошқа)</t>
   </si>
   <si>
@@ -317,24 +335,45 @@
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Банкда шартлар аниқ ва қонуний</t>
   </si>
   <si>
+    <t xml:space="preserve">Банкда шартлар аниқ ва қонуний</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Банк кредит тарихи шаклланади (кейинчалик фойдаси бор)</t>
   </si>
   <si>
+    <t xml:space="preserve">Банк кредит тарихи шаклланади (кейинчалик фойдаси бор)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Фоизлари (устамалари) бошқаларга нисбатан камроқ</t>
   </si>
   <si>
+    <t xml:space="preserve">Фоизлари (устамалари) бошқаларга нисбатан камроқ</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Банкда танишим ишлайди</t>
   </si>
   <si>
+    <t xml:space="preserve">Банкда танишим ишлайди</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Йирик суммани норасмий олиш қийин</t>
   </si>
   <si>
+    <t xml:space="preserve">Йирик суммани норасмий олиш қийин</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Қулай ва осон (масалан, онлайн қарз олиш мумкин)</t>
   </si>
   <si>
+    <t xml:space="preserve">Қулай ва осон (масалан, онлайн қарз олиш мумкин)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Банклардан кредитни узоқ муддатга олиш мумкин</t>
   </si>
   <si>
+    <t xml:space="preserve">Банклардан кредитни узоқ муддатга олиш мумкин</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)/Бошқа сабаблар</t>
   </si>
   <si>
@@ -347,6 +386,9 @@
     <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)/Қарз олиш осон ва тез (онлайн олиш мумкин)</t>
   </si>
   <si>
+    <t xml:space="preserve">Қарз олиш осон ва тез (онлайн олиш мумкин)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)/Устамасиз (фоизсиз) олиш мумкин</t>
   </si>
   <si>
@@ -357,6 +399,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)/Кредит тарихи ёмонлиги учун</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредит тарихи ёмонлиги учун</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)/Бошқа сабаблар</t>
@@ -2250,34 +2295,46 @@
         <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55"/>
-      <c r="D55"/>
+        <v>36</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56"/>
-      <c r="D56"/>
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57"/>
-      <c r="D57"/>
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -2287,37 +2344,49 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59"/>
-      <c r="D59"/>
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60"/>
-      <c r="D60"/>
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61"/>
-      <c r="D61"/>
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2327,7 +2396,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2337,87 +2406,119 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64"/>
-      <c r="D64"/>
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65"/>
-      <c r="D65"/>
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66"/>
-      <c r="D66"/>
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67"/>
-      <c r="D67"/>
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68"/>
-      <c r="D68"/>
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
         <v>105</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69"/>
-      <c r="D69"/>
+      <c r="D69" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70"/>
-      <c r="D70"/>
+        <v>36</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71"/>
-      <c r="D71"/>
+        <v>36</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2427,7 +2528,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2437,37 +2538,49 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74"/>
-      <c r="D74"/>
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75"/>
-      <c r="D75"/>
+        <v>36</v>
+      </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76"/>
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -2477,27 +2590,35 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78"/>
-      <c r="D78"/>
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79"/>
-      <c r="D79"/>
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2507,147 +2628,147 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
         <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
         <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
         <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
         <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
         <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D85" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
         <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" t="s">
         <v>131</v>
       </c>
-      <c r="B88" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" t="s">
-        <v>116</v>
-      </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
         <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D89" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2657,119 +2778,119 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D92" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B93" t="s">
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B94" t="s">
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
         <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
         <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D98" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
         <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2779,63 +2900,63 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B101" t="s">
         <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B102" t="s">
         <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D102" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B103" t="s">
         <v>36</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B104" t="s">
         <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D104" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -2845,7 +2966,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -2855,7 +2976,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2865,7 +2986,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2875,7 +2996,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2885,105 +3006,105 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B110" t="s">
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B111" t="s">
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B112" t="s">
         <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D112" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
         <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D113" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B114" t="s">
         <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D114" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B115" t="s">
         <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D115" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D116" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -2993,7 +3114,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3003,7 +3124,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3013,203 +3134,203 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B120" t="s">
         <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D120" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B121" t="s">
         <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D121" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B122" t="s">
         <v>36</v>
       </c>
       <c r="C122" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D122" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B123" t="s">
         <v>36</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D123" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B124" t="s">
         <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D124" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B125" t="s">
         <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D125" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B126" t="s">
         <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D126" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B127" t="s">
         <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B128" t="s">
         <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B129" t="s">
         <v>36</v>
       </c>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D129" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B130" t="s">
         <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D130" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B131" t="s">
         <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D131" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B132" t="s">
         <v>36</v>
       </c>
       <c r="C132" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D132" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
         <v>36</v>
       </c>
       <c r="C133" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D133" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3219,7 +3340,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -3229,91 +3350,91 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B136" t="s">
         <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D136" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B137" t="s">
         <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D137" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="B138" t="s">
         <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D138" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B139" t="s">
         <v>36</v>
       </c>
       <c r="C139" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B140" t="s">
         <v>36</v>
       </c>
       <c r="C140" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D140" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
         <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D141" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3323,7 +3444,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3333,91 +3454,91 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B144" t="s">
         <v>36</v>
       </c>
       <c r="C144" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D144" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B145" t="s">
         <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D145" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B146" t="s">
         <v>36</v>
       </c>
       <c r="C146" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D146" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B147" t="s">
         <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D147" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B148" t="s">
         <v>36</v>
       </c>
       <c r="C148" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D148" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B149" t="s">
         <v>36</v>
       </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D149" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3427,7 +3548,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3437,105 +3558,105 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B152" t="s">
         <v>36</v>
       </c>
       <c r="C152" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D152" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B153" t="s">
         <v>36</v>
       </c>
       <c r="C153" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D153" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B154" t="s">
         <v>36</v>
       </c>
       <c r="C154" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D154" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B155" t="s">
         <v>36</v>
       </c>
       <c r="C155" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D155" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B156" t="s">
         <v>36</v>
       </c>
       <c r="C156" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D156" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B157" t="s">
         <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D157" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B158" t="s">
         <v>36</v>
       </c>
       <c r="C158" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D158" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
@@ -3545,7 +3666,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -3555,7 +3676,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
@@ -3565,7 +3686,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -3575,7 +3696,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -3585,119 +3706,119 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B164" t="s">
         <v>36</v>
       </c>
       <c r="C164" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D164" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B165" t="s">
         <v>36</v>
       </c>
       <c r="C165" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D165" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B166" t="s">
         <v>36</v>
       </c>
       <c r="C166" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D166" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B167" t="s">
         <v>36</v>
       </c>
       <c r="C167" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D167" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B168" t="s">
         <v>36</v>
       </c>
       <c r="C168" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D168" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B169" t="s">
         <v>36</v>
       </c>
       <c r="C169" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D169" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B170" t="s">
         <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D170" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>297</v>
+      </c>
+      <c r="B171" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" t="s">
         <v>282</v>
       </c>
-      <c r="B171" t="s">
-        <v>36</v>
-      </c>
-      <c r="C171" t="s">
-        <v>267</v>
-      </c>
       <c r="D171" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -3707,7 +3828,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -3717,7 +3838,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -3727,147 +3848,147 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B175" t="s">
         <v>36</v>
       </c>
       <c r="C175" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D175" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B176" t="s">
         <v>36</v>
       </c>
       <c r="C176" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D176" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B177" t="s">
         <v>36</v>
       </c>
       <c r="C177" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D177" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B178" t="s">
         <v>36</v>
       </c>
       <c r="C178" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D178" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B179" t="s">
         <v>36</v>
       </c>
       <c r="C179" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D179" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B180" t="s">
         <v>36</v>
       </c>
       <c r="C180" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D180" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B181" t="s">
         <v>36</v>
       </c>
       <c r="C181" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D181" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>315</v>
+      </c>
+      <c r="B182" t="s">
+        <v>36</v>
+      </c>
+      <c r="C182" t="s">
         <v>300</v>
       </c>
-      <c r="B182" t="s">
-        <v>36</v>
-      </c>
-      <c r="C182" t="s">
-        <v>285</v>
-      </c>
       <c r="D182" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B183" t="s">
         <v>36</v>
       </c>
       <c r="C183" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D183" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="B184" t="s">
         <v>36</v>
       </c>
       <c r="C184" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D184" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -3877,105 +3998,105 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B186" t="s">
         <v>36</v>
       </c>
       <c r="C186" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="D186" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B187" t="s">
         <v>36</v>
       </c>
       <c r="C187" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D187" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B188" t="s">
         <v>36</v>
       </c>
       <c r="C188" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D188" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B189" t="s">
         <v>36</v>
       </c>
       <c r="C189" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D189" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B190" t="s">
         <v>36</v>
       </c>
       <c r="C190" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="D190" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B191" t="s">
         <v>36</v>
       </c>
       <c r="C191" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D191" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="B192" t="s">
         <v>36</v>
       </c>
       <c r="C192" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D192" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -3985,7 +4106,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3995,7 +4116,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -4005,7 +4126,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -4015,245 +4136,245 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B197" t="s">
         <v>36</v>
       </c>
       <c r="C197" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D197" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B198" t="s">
         <v>36</v>
       </c>
       <c r="C198" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D198" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B199" t="s">
         <v>36</v>
       </c>
       <c r="C199" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D199" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B200" t="s">
         <v>36</v>
       </c>
       <c r="C200" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D200" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B201" t="s">
         <v>36</v>
       </c>
       <c r="C201" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D201" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="B202" t="s">
         <v>36</v>
       </c>
       <c r="C202" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D202" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B203" t="s">
         <v>36</v>
       </c>
       <c r="C203" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D203" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B204" t="s">
         <v>36</v>
       </c>
       <c r="C204" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D204" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B205" t="s">
         <v>36</v>
       </c>
       <c r="C205" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D205" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B206" t="s">
         <v>36</v>
       </c>
       <c r="C206" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D206" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B207" t="s">
         <v>36</v>
       </c>
       <c r="C207" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D207" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B208" t="s">
         <v>36</v>
       </c>
       <c r="C208" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D208" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B209" t="s">
         <v>36</v>
       </c>
       <c r="C209" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D209" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="B210" t="s">
         <v>36</v>
       </c>
       <c r="C210" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D210" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="B211" t="s">
         <v>36</v>
       </c>
       <c r="C211" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D211" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B212" t="s">
         <v>36</v>
       </c>
       <c r="C212" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D212" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B213" t="s">
         <v>36</v>
       </c>
       <c r="C213" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D213" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -4263,7 +4384,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -4273,7 +4394,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -4283,91 +4404,91 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="B217" t="s">
         <v>36</v>
       </c>
       <c r="C217" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D217" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="B218" t="s">
         <v>36</v>
       </c>
       <c r="C218" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D218" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B219" t="s">
         <v>36</v>
       </c>
       <c r="C219" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D219" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B220" t="s">
         <v>36</v>
       </c>
       <c r="C220" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D220" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B221" t="s">
         <v>36</v>
       </c>
       <c r="C221" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D221" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B222" t="s">
         <v>36</v>
       </c>
       <c r="C222" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D222" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -4377,7 +4498,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
@@ -4387,7 +4508,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="B225" t="s">
         <v>7</v>
@@ -4397,133 +4518,133 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="B226" t="s">
         <v>36</v>
       </c>
       <c r="C226" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D226" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B227" t="s">
         <v>36</v>
       </c>
       <c r="C227" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D227" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B228" t="s">
         <v>36</v>
       </c>
       <c r="C228" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D228" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B229" t="s">
         <v>36</v>
       </c>
       <c r="C229" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D229" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B230" t="s">
         <v>36</v>
       </c>
       <c r="C230" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D230" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B231" t="s">
         <v>36</v>
       </c>
       <c r="C231" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D231" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>412</v>
+      </c>
+      <c r="B232" t="s">
+        <v>36</v>
+      </c>
+      <c r="C232" t="s">
         <v>397</v>
       </c>
-      <c r="B232" t="s">
-        <v>36</v>
-      </c>
-      <c r="C232" t="s">
-        <v>382</v>
-      </c>
       <c r="D232" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="B233" t="s">
         <v>36</v>
       </c>
       <c r="C233" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D233" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B234" t="s">
         <v>36</v>
       </c>
       <c r="C234" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="D234" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -4533,119 +4654,119 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B236" t="s">
         <v>36</v>
       </c>
       <c r="C236" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D236" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="B237" t="s">
         <v>36</v>
       </c>
       <c r="C237" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D237" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B238" t="s">
         <v>36</v>
       </c>
       <c r="C238" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D238" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B239" t="s">
         <v>36</v>
       </c>
       <c r="C239" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="D239" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B240" t="s">
         <v>36</v>
       </c>
       <c r="C240" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D240" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B241" t="s">
         <v>36</v>
       </c>
       <c r="C241" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D241" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="B242" t="s">
         <v>36</v>
       </c>
       <c r="C242" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D242" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="B243" t="s">
         <v>36</v>
       </c>
       <c r="C243" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="D243" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
@@ -4655,7 +4776,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
@@ -4665,7 +4786,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B246" t="s">
         <v>7</v>
@@ -4675,7 +4796,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
@@ -4685,7 +4806,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B248" t="s">
         <v>13</v>
@@ -4695,7 +4816,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="B249" t="s">
         <v>13</v>
@@ -4705,7 +4826,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
